--- a/Code/Results/Cases/Case_2_91/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_91/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.577977978580293</v>
+        <v>1.225757106164735</v>
       </c>
       <c r="C2">
-        <v>0.4050671100651755</v>
+        <v>0.3129439817075621</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07978297489291464</v>
+        <v>0.2308316458072017</v>
       </c>
       <c r="F2">
-        <v>0.982196429039746</v>
+        <v>2.006044535286037</v>
       </c>
       <c r="G2">
-        <v>0.0008065464046529014</v>
+        <v>0.002464079327741438</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07460565323901847</v>
+        <v>0.06201190636205212</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2890875314977421</v>
+        <v>0.4281784128119028</v>
       </c>
       <c r="M2">
-        <v>0.4984040741174596</v>
+        <v>0.341158130737746</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.666318408428964</v>
+        <v>3.491593901693278</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.241159680029455</v>
+        <v>1.125010755990672</v>
       </c>
       <c r="C3">
-        <v>0.3769502884899794</v>
+        <v>0.3034362689975438</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08071925323946161</v>
+        <v>0.2321710535730546</v>
       </c>
       <c r="F3">
-        <v>0.9510858924653576</v>
+        <v>2.015264558025514</v>
       </c>
       <c r="G3">
-        <v>0.0008110774223080725</v>
+        <v>0.002467035911406694</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07034639490700201</v>
+        <v>0.06055202878836496</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2619674108939876</v>
+        <v>0.4222000518085309</v>
       </c>
       <c r="M3">
-        <v>0.4354474082486703</v>
+        <v>0.3233105861790193</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.643057806992829</v>
+        <v>3.522126831721948</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.034912180214462</v>
+        <v>1.063273409146063</v>
       </c>
       <c r="C4">
-        <v>0.359721943408374</v>
+        <v>0.2975807635467618</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0813757309316685</v>
+        <v>0.2330570016367943</v>
       </c>
       <c r="F4">
-        <v>0.9340806023237178</v>
+        <v>2.022073380476684</v>
       </c>
       <c r="G4">
-        <v>0.0008139483472423446</v>
+        <v>0.002468948076384555</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06774945015141398</v>
+        <v>0.0596605893909441</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2454960066020391</v>
+        <v>0.418654725366622</v>
       </c>
       <c r="M4">
-        <v>0.396955118548135</v>
+        <v>0.3124264771974623</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.63376910553238</v>
+        <v>3.543295530394403</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.950970747074678</v>
+        <v>1.038146953549472</v>
       </c>
       <c r="C5">
-        <v>0.352707679611612</v>
+        <v>0.2951903121779367</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08166344211760013</v>
+        <v>0.2334340414005487</v>
       </c>
       <c r="F5">
-        <v>0.9276531577636007</v>
+        <v>2.02513662072154</v>
       </c>
       <c r="G5">
-        <v>0.0008151410864252486</v>
+        <v>0.002469751716023572</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06669538459726709</v>
+        <v>0.05929859681075555</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2388257401637475</v>
+        <v>0.4172416817385738</v>
       </c>
       <c r="M5">
-        <v>0.3813035147273993</v>
+        <v>0.3080101121505976</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.631176063068551</v>
+        <v>3.552530103587898</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.937037770290317</v>
+        <v>1.033976703016265</v>
       </c>
       <c r="C6">
-        <v>0.3515432852415472</v>
+        <v>0.2947931258701573</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08171242652948596</v>
+        <v>0.2334976163214639</v>
       </c>
       <c r="F6">
-        <v>0.9266155223897812</v>
+        <v>2.025662699365263</v>
       </c>
       <c r="G6">
-        <v>0.000815340531049945</v>
+        <v>0.00246988663672388</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06652060156826067</v>
+        <v>0.0592385663707411</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2377205860993001</v>
+        <v>0.4170089668854473</v>
       </c>
       <c r="M6">
-        <v>0.3787064610313493</v>
+        <v>0.3072779344095053</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.630815703017902</v>
+        <v>3.554100207683689</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.033779731452853</v>
+        <v>1.062934413344749</v>
       </c>
       <c r="C7">
-        <v>0.3596273237362908</v>
+        <v>0.2975485422029891</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08137952977399188</v>
+        <v>0.2330620216686548</v>
       </c>
       <c r="F7">
-        <v>0.9339919175322109</v>
+        <v>2.022113523928191</v>
       </c>
       <c r="G7">
-        <v>0.0008139643399671201</v>
+        <v>0.002468958815459978</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06773521808760918</v>
+        <v>0.05965570221671612</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2454058835088802</v>
+        <v>0.4186355399636881</v>
       </c>
       <c r="M7">
-        <v>0.3967439052235306</v>
+        <v>0.3123668392325243</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.633729389181539</v>
+        <v>3.543417609631192</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.461704990705073</v>
+        <v>1.190995453236155</v>
       </c>
       <c r="C8">
-        <v>0.3953634895648008</v>
+        <v>0.3096695029669974</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08008866623575628</v>
+        <v>0.2312803023162502</v>
       </c>
       <c r="F8">
-        <v>0.9710189601902215</v>
+        <v>2.008985389032816</v>
       </c>
       <c r="G8">
-        <v>0.0008080905462165555</v>
+        <v>0.002465078709076623</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07313303219364897</v>
+        <v>0.06150753817704668</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.279696934101068</v>
+        <v>0.4260911439647828</v>
       </c>
       <c r="M8">
-        <v>0.4766584891191457</v>
+        <v>0.3349890384593976</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.65722251473764</v>
+        <v>3.501618673010455</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.307037374585491</v>
+        <v>1.443032362522615</v>
       </c>
       <c r="C9">
-        <v>0.4658498762950956</v>
+        <v>0.3332915797961675</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0782202427702714</v>
+        <v>0.228289255664075</v>
       </c>
       <c r="F9">
-        <v>1.061457716201573</v>
+        <v>1.99234949350361</v>
       </c>
       <c r="G9">
-        <v>0.0007972545954303068</v>
+        <v>0.002458234627843001</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08388223402947403</v>
+        <v>0.06517672736841718</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.348541105249069</v>
+        <v>0.4417002338209102</v>
       </c>
       <c r="M9">
-        <v>0.6350015173502612</v>
+        <v>0.3799303418044673</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.745954802972591</v>
+        <v>3.43889709743766</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.93450955243685</v>
+        <v>1.628706630127397</v>
       </c>
       <c r="C10">
-        <v>0.5180811939806915</v>
+        <v>0.3505502377410892</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07727437533623061</v>
+        <v>0.2263965285943339</v>
       </c>
       <c r="F10">
-        <v>1.140542213850694</v>
+        <v>1.985684814080102</v>
       </c>
       <c r="G10">
-        <v>0.0007896760072775094</v>
+        <v>0.002453667819354884</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09190966416018398</v>
+        <v>0.0678939348204679</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4003502956739879</v>
+        <v>0.4537638965355342</v>
       </c>
       <c r="M10">
-        <v>0.752841371075391</v>
+        <v>0.4132910310069136</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.84167653356792</v>
+        <v>3.404597142864418</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.221998207593231</v>
+        <v>1.713274262118148</v>
       </c>
       <c r="C11">
-        <v>0.5419877220500098</v>
+        <v>0.358379397514625</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07694212141606727</v>
+        <v>0.2256012839887767</v>
       </c>
       <c r="F11">
-        <v>1.179688414968027</v>
+        <v>1.983860927804642</v>
       </c>
       <c r="G11">
-        <v>0.000786303415269522</v>
+        <v>0.002451689477697038</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09559716762360893</v>
+        <v>0.06913441650097241</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4242479820669161</v>
+        <v>0.4593799274412476</v>
       </c>
       <c r="M11">
-        <v>0.8069008424775461</v>
+        <v>0.4285399715642058</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.892941227489047</v>
+        <v>3.391562097635045</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.3312146498007</v>
+        <v>1.74531149568071</v>
       </c>
       <c r="C12">
-        <v>0.5510658860020214</v>
+        <v>0.3613408053608111</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07683087975539671</v>
+        <v>0.2253095732097794</v>
       </c>
       <c r="F12">
-        <v>1.195006160894266</v>
+        <v>1.983344029084975</v>
       </c>
       <c r="G12">
-        <v>0.0007850363745860399</v>
+        <v>0.002450954509044548</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09699933598012933</v>
+        <v>0.06960475773543351</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4333502333016668</v>
+        <v>0.4615248619620473</v>
       </c>
       <c r="M12">
-        <v>0.8274480296644242</v>
+        <v>0.4343245999883436</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.913562921517638</v>
+        <v>3.386996207482383</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.307676390713823</v>
+        <v>1.7384111372848</v>
       </c>
       <c r="C13">
-        <v>0.549109544709097</v>
+        <v>0.3607031638748595</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07685418140509626</v>
+        <v>0.2253719793085409</v>
       </c>
       <c r="F13">
-        <v>1.191684605216054</v>
+        <v>1.983447622994547</v>
       </c>
       <c r="G13">
-        <v>0.0007853088174238767</v>
+        <v>0.002451112167946569</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09669708549765232</v>
+        <v>0.0695034353261974</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4313874664281343</v>
+        <v>0.4610621022838757</v>
       </c>
       <c r="M13">
-        <v>0.8230192614612548</v>
+        <v>0.4330783286767428</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.909066248800571</v>
+        <v>3.387963074666686</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.230976142233601</v>
+        <v>1.715909726877157</v>
       </c>
       <c r="C14">
-        <v>0.542734055654023</v>
+        <v>0.3586231019669981</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07693267451966612</v>
+        <v>0.2255770959029402</v>
       </c>
       <c r="F14">
-        <v>1.180938487651147</v>
+        <v>1.983814919272888</v>
       </c>
       <c r="G14">
-        <v>0.0007861989770621588</v>
+        <v>0.002451628727320513</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09571240490091526</v>
+        <v>0.06917309998538457</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4249957411215348</v>
+        <v>0.4595560274027406</v>
       </c>
       <c r="M14">
-        <v>0.8085896828136043</v>
+        <v>0.4290156740647717</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.894612965387353</v>
+        <v>3.391179034639663</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.184042448422872</v>
+        <v>1.702128649775887</v>
       </c>
       <c r="C15">
-        <v>0.5388323096352394</v>
+        <v>0.3573485657497599</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07698266677452459</v>
+        <v>0.2257039631757145</v>
       </c>
       <c r="F15">
-        <v>1.174421683766539</v>
+        <v>1.98406253059737</v>
       </c>
       <c r="G15">
-        <v>0.0007867455177847358</v>
+        <v>0.002451946980520666</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09511003386715089</v>
+        <v>0.06897083681985805</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4210876558334746</v>
+        <v>0.4586358867016429</v>
       </c>
       <c r="M15">
-        <v>0.7997613882007499</v>
+        <v>0.4265284980821704</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.885920407140418</v>
+        <v>3.39319714036958</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.9157674068544</v>
+        <v>1.623181883889572</v>
       </c>
       <c r="C16">
-        <v>0.5165221435236163</v>
+        <v>0.3500381280409783</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07729810174415697</v>
+        <v>0.2264498208598855</v>
       </c>
       <c r="F16">
-        <v>1.138050898187757</v>
+        <v>1.985828321708823</v>
       </c>
       <c r="G16">
-        <v>0.0007898978643299064</v>
+        <v>0.002453799097597388</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09166945105970115</v>
+        <v>0.06781295204621074</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3987956019742569</v>
+        <v>0.4533994409869848</v>
       </c>
       <c r="M16">
-        <v>0.7493184885522979</v>
+        <v>0.4122959190853379</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.838489876241397</v>
+        <v>3.405500768816864</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.75175250868898</v>
+        <v>1.574775978887828</v>
       </c>
       <c r="C17">
-        <v>0.5028759394028555</v>
+        <v>0.345547677786584</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07751704931790293</v>
+        <v>0.2269242061888388</v>
       </c>
       <c r="F17">
-        <v>1.116576752496783</v>
+        <v>1.987221003293257</v>
       </c>
       <c r="G17">
-        <v>0.0007918504466450484</v>
+        <v>0.002454960651072861</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08956837145810681</v>
+        <v>0.06710373076090548</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3852081957316216</v>
+        <v>0.4502197668862493</v>
       </c>
       <c r="M17">
-        <v>0.7184969864641317</v>
+        <v>0.4035831666275982</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.811437926788471</v>
+        <v>3.413707057661497</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.657604650188887</v>
+        <v>1.546944015393422</v>
       </c>
       <c r="C18">
-        <v>0.4950404916059199</v>
+        <v>0.3429628395940654</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07765217834180405</v>
+        <v>0.2272032518811393</v>
       </c>
       <c r="F18">
-        <v>1.104521349135638</v>
+        <v>1.988135726893816</v>
       </c>
       <c r="G18">
-        <v>0.0007929806188131686</v>
+        <v>0.002455638079777584</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0883632123841096</v>
+        <v>0.06669622271255804</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3774237420655879</v>
+        <v>0.4484029803542313</v>
       </c>
       <c r="M18">
-        <v>0.7008112630235175</v>
+        <v>0.3985787109922114</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.796598684450032</v>
+        <v>3.418668773307559</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.625758657979588</v>
+        <v>1.537522327737634</v>
       </c>
       <c r="C19">
-        <v>0.492389736865789</v>
+        <v>0.3420873111509195</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07769949604271531</v>
+        <v>0.2272987962002571</v>
       </c>
       <c r="F19">
-        <v>1.100489314998896</v>
+        <v>1.988464960759842</v>
       </c>
       <c r="G19">
-        <v>0.0007933645151031094</v>
+        <v>0.002455869050591949</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08795571880446573</v>
+        <v>0.06655832027586683</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3747931700992666</v>
+        <v>0.447789927270037</v>
       </c>
       <c r="M19">
-        <v>0.6948300772828091</v>
+        <v>0.396885481040222</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.791695208390962</v>
+        <v>3.420390205555606</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.769192203948251</v>
+        <v>1.579927863897979</v>
       </c>
       <c r="C20">
-        <v>0.504327175611337</v>
+        <v>0.3460259073384861</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07749278683013117</v>
+        <v>0.226873066421966</v>
       </c>
       <c r="F20">
-        <v>1.118831815093088</v>
+        <v>1.987060982949643</v>
       </c>
       <c r="G20">
-        <v>0.0007916418610964</v>
+        <v>0.002454836036168904</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08979168621463884</v>
+        <v>0.06717918565618675</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3866513874228446</v>
+        <v>0.4505569998461283</v>
       </c>
       <c r="M20">
-        <v>0.7217735666706062</v>
+        <v>0.4045099432632853</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.814242412437352</v>
+        <v>3.412808465189698</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.253494874517287</v>
+        <v>1.722518587879733</v>
       </c>
       <c r="C21">
-        <v>0.5446059693974519</v>
+        <v>0.3592341582117058</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07690921963033759</v>
+        <v>0.225516592436847</v>
       </c>
       <c r="F21">
-        <v>1.184081159933669</v>
+        <v>1.983702318890877</v>
       </c>
       <c r="G21">
-        <v>0.0007859372476335751</v>
+        <v>0.00245147661686556</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09600146687198929</v>
+        <v>0.06927011154813556</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4268716703820559</v>
+        <v>0.4599979037399322</v>
       </c>
       <c r="M21">
-        <v>0.812825845457624</v>
+        <v>0.4302087002373582</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.898824610523491</v>
+        <v>3.390224375012821</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.572088535513842</v>
+        <v>1.815786710852763</v>
       </c>
       <c r="C22">
-        <v>0.5710801044425011</v>
+        <v>0.3678470522160353</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07661302865142439</v>
+        <v>0.2246850179024609</v>
       </c>
       <c r="F22">
-        <v>1.229624198889283</v>
+        <v>1.982520119646964</v>
       </c>
       <c r="G22">
-        <v>0.0007822673877299088</v>
+        <v>0.002449363701625992</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1000940125738339</v>
+        <v>0.07064011998817676</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4534680109193374</v>
+        <v>0.4662744668975165</v>
       </c>
       <c r="M22">
-        <v>0.8727826672397683</v>
+        <v>0.4470635503233353</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.961201871790792</v>
+        <v>3.377622582080392</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.401839524123147</v>
+        <v>1.766001243213395</v>
       </c>
       <c r="C23">
-        <v>0.5569351621479939</v>
+        <v>0.363252027265105</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07676314837358156</v>
+        <v>0.225123824645884</v>
       </c>
       <c r="F23">
-        <v>1.205038427212614</v>
+        <v>1.983058379576747</v>
       </c>
       <c r="G23">
-        <v>0.0007842209559337202</v>
+        <v>0.002450483863034183</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09790639578942262</v>
+        <v>0.06990861535807369</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4392427946712729</v>
+        <v>0.4629148688494524</v>
       </c>
       <c r="M23">
-        <v>0.8407376951472543</v>
+        <v>0.4380624824919934</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.927225760444685</v>
+        <v>3.384150623248672</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.761307265622634</v>
+        <v>1.577598705177422</v>
       </c>
       <c r="C24">
-        <v>0.503671041087614</v>
+        <v>0.345809709771487</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07750372711526232</v>
+        <v>0.2268961670374914</v>
       </c>
       <c r="F24">
-        <v>1.1178113997004</v>
+        <v>1.987132972883927</v>
       </c>
       <c r="G24">
-        <v>0.0007917361388421909</v>
+        <v>0.002454892344633954</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08969071700349218</v>
+        <v>0.06714507176990736</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3859988363630862</v>
+        <v>0.4504045017697393</v>
       </c>
       <c r="M24">
-        <v>0.7202921197616163</v>
+        <v>0.4040909331269873</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.812972290121451</v>
+        <v>3.413213959444846</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.077431217429705</v>
+        <v>1.374757731802788</v>
       </c>
       <c r="C25">
-        <v>0.4467185387717905</v>
+        <v>0.3269176426640001</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07865246270354298</v>
+        <v>0.2290447592377216</v>
       </c>
       <c r="F25">
-        <v>1.03490746447801</v>
+        <v>1.995874310403977</v>
       </c>
       <c r="G25">
-        <v>0.0008001162696067244</v>
+        <v>0.00246000474448589</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08095378516424745</v>
+        <v>0.06418023623729852</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3297205425667755</v>
+        <v>0.4373724507929779</v>
       </c>
       <c r="M25">
-        <v>0.5919405254899033</v>
+        <v>0.367711644325432</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.716935805514282</v>
+        <v>3.453799484884655</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_91/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_91/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.225757106164735</v>
+        <v>2.577977978580179</v>
       </c>
       <c r="C2">
-        <v>0.3129439817075621</v>
+        <v>0.4050671100651755</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2308316458072017</v>
+        <v>0.07978297489294839</v>
       </c>
       <c r="F2">
-        <v>2.006044535286037</v>
+        <v>0.9821964290397318</v>
       </c>
       <c r="G2">
-        <v>0.002464079327741438</v>
+        <v>0.0008065464046748283</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06201190636205212</v>
+        <v>0.07460565323907886</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4281784128119028</v>
+        <v>0.2890875314977137</v>
       </c>
       <c r="M2">
-        <v>0.341158130737746</v>
+        <v>0.4984040741174596</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.491593901693278</v>
+        <v>1.666318408429021</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.125010755990672</v>
+        <v>2.241159680029682</v>
       </c>
       <c r="C3">
-        <v>0.3034362689975438</v>
+        <v>0.3769502884903488</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2321710535730546</v>
+        <v>0.08071925323944384</v>
       </c>
       <c r="F3">
-        <v>2.015264558025514</v>
+        <v>0.9510858924653576</v>
       </c>
       <c r="G3">
-        <v>0.002467035911406694</v>
+        <v>0.0008110774223076267</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06055202878836496</v>
+        <v>0.07034639490694516</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4222000518085309</v>
+        <v>0.2619674108940018</v>
       </c>
       <c r="M3">
-        <v>0.3233105861790193</v>
+        <v>0.4354474082486703</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.522126831721948</v>
+        <v>1.643057806992829</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.063273409146063</v>
+        <v>2.034912180214519</v>
       </c>
       <c r="C4">
-        <v>0.2975807635467618</v>
+        <v>0.3597219434086298</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2330570016367943</v>
+        <v>0.08137573093166317</v>
       </c>
       <c r="F4">
-        <v>2.022073380476684</v>
+        <v>0.934080602323732</v>
       </c>
       <c r="G4">
-        <v>0.002468948076384555</v>
+        <v>0.0008139483472015457</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0596605893909441</v>
+        <v>0.06774945015128253</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.418654725366622</v>
+        <v>0.2454960066020959</v>
       </c>
       <c r="M4">
-        <v>0.3124264771974623</v>
+        <v>0.396955118548135</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.543295530394403</v>
+        <v>1.633769105532409</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.038146953549472</v>
+        <v>1.950970747074678</v>
       </c>
       <c r="C5">
-        <v>0.2951903121779367</v>
+        <v>0.3527076796116972</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2334340414005487</v>
+        <v>0.0816634421176099</v>
       </c>
       <c r="F5">
-        <v>2.02513662072154</v>
+        <v>0.927653157763622</v>
       </c>
       <c r="G5">
-        <v>0.002469751716023572</v>
+        <v>0.0008151410864258289</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05929859681075555</v>
+        <v>0.06669538459718893</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4172416817385738</v>
+        <v>0.2388257401638185</v>
       </c>
       <c r="M5">
-        <v>0.3080101121505976</v>
+        <v>0.3813035147274206</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.552530103587898</v>
+        <v>1.631176063068651</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.033976703016265</v>
+        <v>1.937037770290317</v>
       </c>
       <c r="C6">
-        <v>0.2947931258701573</v>
+        <v>0.3515432852415756</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2334976163214639</v>
+        <v>0.0817124265295055</v>
       </c>
       <c r="F6">
-        <v>2.025662699365263</v>
+        <v>0.9266155223897812</v>
       </c>
       <c r="G6">
-        <v>0.00246988663672388</v>
+        <v>0.0008153405310712958</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0592385663707411</v>
+        <v>0.06652060156821804</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4170089668854473</v>
+        <v>0.2377205860992575</v>
       </c>
       <c r="M6">
-        <v>0.3072779344095053</v>
+        <v>0.3787064610313564</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.554100207683689</v>
+        <v>1.630815703017944</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.062934413344749</v>
+        <v>2.033779731452796</v>
       </c>
       <c r="C7">
-        <v>0.2975485422029891</v>
+        <v>0.3596273237359924</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2330620216686548</v>
+        <v>0.08137952977400253</v>
       </c>
       <c r="F7">
-        <v>2.022113523928191</v>
+        <v>0.9339919175322251</v>
       </c>
       <c r="G7">
-        <v>0.002468958815459978</v>
+        <v>0.0008139643399660188</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05965570221671612</v>
+        <v>0.06773521808754168</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4186355399636881</v>
+        <v>0.2454058835087807</v>
       </c>
       <c r="M7">
-        <v>0.3123668392325243</v>
+        <v>0.3967439052235306</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.543417609631192</v>
+        <v>1.633729389181639</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.190995453236155</v>
+        <v>2.461704990705016</v>
       </c>
       <c r="C8">
-        <v>0.3096695029669974</v>
+        <v>0.3953634895648008</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2312803023162502</v>
+        <v>0.08008866623578292</v>
       </c>
       <c r="F8">
-        <v>2.008985389032816</v>
+        <v>0.9710189601902073</v>
       </c>
       <c r="G8">
-        <v>0.002465078709076623</v>
+        <v>0.0008080905461357868</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06150753817704668</v>
+        <v>0.0731330321935495</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4260911439647828</v>
+        <v>0.2796969341010822</v>
       </c>
       <c r="M8">
-        <v>0.3349890384593976</v>
+        <v>0.4766584891191243</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.501618673010455</v>
+        <v>1.657222514737612</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.443032362522615</v>
+        <v>3.307037374585377</v>
       </c>
       <c r="C9">
-        <v>0.3332915797961675</v>
+        <v>0.4658498762949819</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.228289255664075</v>
+        <v>0.07822024277025719</v>
       </c>
       <c r="F9">
-        <v>1.99234949350361</v>
+        <v>1.061457716201573</v>
       </c>
       <c r="G9">
-        <v>0.002458234627843001</v>
+        <v>0.0007972545953765963</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06517672736841718</v>
+        <v>0.08388223402936745</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4417002338209102</v>
+        <v>0.3485411052489695</v>
       </c>
       <c r="M9">
-        <v>0.3799303418044673</v>
+        <v>0.6350015173502541</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.43889709743766</v>
+        <v>1.745954802972562</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.628706630127397</v>
+        <v>3.934509552436566</v>
       </c>
       <c r="C10">
-        <v>0.3505502377410892</v>
+        <v>0.5180811939801799</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2263965285943339</v>
+        <v>0.07727437533624837</v>
       </c>
       <c r="F10">
-        <v>1.985684814080102</v>
+        <v>1.140542213850708</v>
       </c>
       <c r="G10">
-        <v>0.002453667819354884</v>
+        <v>0.000789676007277552</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0678939348204679</v>
+        <v>0.09190966416011292</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4537638965355342</v>
+        <v>0.4003502956738885</v>
       </c>
       <c r="M10">
-        <v>0.4132910310069136</v>
+        <v>0.7528413710754123</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.404597142864418</v>
+        <v>1.841676533567892</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.713274262118148</v>
+        <v>4.221998207593231</v>
       </c>
       <c r="C11">
-        <v>0.358379397514625</v>
+        <v>0.5419877220499529</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2256012839887767</v>
+        <v>0.07694212141608325</v>
       </c>
       <c r="F11">
-        <v>1.983860927804642</v>
+        <v>1.179688414968041</v>
       </c>
       <c r="G11">
-        <v>0.002451689477697038</v>
+        <v>0.000786303415241646</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06913441650097241</v>
+        <v>0.09559716762366577</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4593799274412476</v>
+        <v>0.4242479820668876</v>
       </c>
       <c r="M11">
-        <v>0.4285399715642058</v>
+        <v>0.8069008424775319</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.391562097635045</v>
+        <v>1.892941227489047</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.74531149568071</v>
+        <v>4.33121464980087</v>
       </c>
       <c r="C12">
-        <v>0.3613408053608111</v>
+        <v>0.551065886002533</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2253095732097794</v>
+        <v>0.07683087975539493</v>
       </c>
       <c r="F12">
-        <v>1.983344029084975</v>
+        <v>1.195006160894266</v>
       </c>
       <c r="G12">
-        <v>0.002450954509044548</v>
+        <v>0.0007850363745848234</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06960475773543351</v>
+        <v>0.09699933598015775</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4615248619620473</v>
+        <v>0.4333502333017236</v>
       </c>
       <c r="M12">
-        <v>0.4343245999883436</v>
+        <v>0.8274480296644242</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.386996207482383</v>
+        <v>1.913562921517695</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.7384111372848</v>
+        <v>4.30767639071388</v>
       </c>
       <c r="C13">
-        <v>0.3607031638748595</v>
+        <v>0.5491095447088696</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2253719793085409</v>
+        <v>0.0768541814050856</v>
       </c>
       <c r="F13">
-        <v>1.983447622994547</v>
+        <v>1.191684605216039</v>
       </c>
       <c r="G13">
-        <v>0.002451112167946569</v>
+        <v>0.0007853088174245418</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0695034353261974</v>
+        <v>0.09669708549760969</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4610621022838757</v>
+        <v>0.4313874664280632</v>
       </c>
       <c r="M13">
-        <v>0.4330783286767428</v>
+        <v>0.8230192614612548</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.387963074666686</v>
+        <v>1.909066248800542</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.715909726877157</v>
+        <v>4.230976142233715</v>
       </c>
       <c r="C14">
-        <v>0.3586231019669981</v>
+        <v>0.542734055654023</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2255770959029402</v>
+        <v>0.07693267451963415</v>
       </c>
       <c r="F14">
-        <v>1.983814919272888</v>
+        <v>1.180938487651133</v>
       </c>
       <c r="G14">
-        <v>0.002451628727320513</v>
+        <v>0.0007861989770070345</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06917309998538457</v>
+        <v>0.09571240490088684</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4595560274027406</v>
+        <v>0.4249957411215206</v>
       </c>
       <c r="M14">
-        <v>0.4290156740647717</v>
+        <v>0.8085896828136043</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.391179034639663</v>
+        <v>1.894612965387267</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.702128649775887</v>
+        <v>4.184042448422815</v>
       </c>
       <c r="C15">
-        <v>0.3573485657497599</v>
+        <v>0.5388323096350973</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2257039631757145</v>
+        <v>0.07698266677451038</v>
       </c>
       <c r="F15">
-        <v>1.98406253059737</v>
+        <v>1.174421683766539</v>
       </c>
       <c r="G15">
-        <v>0.002451946980520666</v>
+        <v>0.0007867455177840244</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06897083681985805</v>
+        <v>0.09511003386713668</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4586358867016429</v>
+        <v>0.4210876558336167</v>
       </c>
       <c r="M15">
-        <v>0.4265284980821704</v>
+        <v>0.7997613882007357</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.39319714036958</v>
+        <v>1.885920407140389</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.623181883889572</v>
+        <v>3.915767406854513</v>
       </c>
       <c r="C16">
-        <v>0.3500381280409783</v>
+        <v>0.5165221435237868</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2264498208598855</v>
+        <v>0.07729810174412854</v>
       </c>
       <c r="F16">
-        <v>1.985828321708823</v>
+        <v>1.138050898187785</v>
       </c>
       <c r="G16">
-        <v>0.002453799097597388</v>
+        <v>0.0007898978643301283</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06781295204621074</v>
+        <v>0.09166945105968693</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4533994409869848</v>
+        <v>0.3987956019741574</v>
       </c>
       <c r="M16">
-        <v>0.4122959190853379</v>
+        <v>0.7493184885523121</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.405500768816864</v>
+        <v>1.838489876241425</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.574775978887828</v>
+        <v>3.751752508689037</v>
       </c>
       <c r="C17">
-        <v>0.345547677786584</v>
+        <v>0.5028759394031965</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2269242061888388</v>
+        <v>0.07751704931791714</v>
       </c>
       <c r="F17">
-        <v>1.987221003293257</v>
+        <v>1.116576752496769</v>
       </c>
       <c r="G17">
-        <v>0.002454960651072861</v>
+        <v>0.0007918504466695363</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06710373076090548</v>
+        <v>0.08956837145821339</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4502197668862493</v>
+        <v>0.3852081957315647</v>
       </c>
       <c r="M17">
-        <v>0.4035831666275982</v>
+        <v>0.7184969864641531</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.413707057661497</v>
+        <v>1.811437926788471</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.546944015393422</v>
+        <v>3.657604650188887</v>
       </c>
       <c r="C18">
-        <v>0.3429628395940654</v>
+        <v>0.4950404916057778</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2272032518811393</v>
+        <v>0.07765217834177385</v>
       </c>
       <c r="F18">
-        <v>1.988135726893816</v>
+        <v>1.104521349135624</v>
       </c>
       <c r="G18">
-        <v>0.002455638079777584</v>
+        <v>0.0007929806188371011</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06669622271255804</v>
+        <v>0.08836321238403144</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4484029803542313</v>
+        <v>0.3774237420656448</v>
       </c>
       <c r="M18">
-        <v>0.3985787109922114</v>
+        <v>0.7008112630235175</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.418668773307559</v>
+        <v>1.796598684450061</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.537522327737634</v>
+        <v>3.625758657979588</v>
       </c>
       <c r="C19">
-        <v>0.3420873111509195</v>
+        <v>0.4923897368653627</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2272987962002571</v>
+        <v>0.07769949604275617</v>
       </c>
       <c r="F19">
-        <v>1.988464960759842</v>
+        <v>1.10048931499891</v>
       </c>
       <c r="G19">
-        <v>0.002455869050591949</v>
+        <v>0.0007933645151025074</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06655832027586683</v>
+        <v>0.08795571880450126</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.447789927270037</v>
+        <v>0.3747931700992808</v>
       </c>
       <c r="M19">
-        <v>0.396885481040222</v>
+        <v>0.6948300772828091</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.420390205555606</v>
+        <v>1.791695208391047</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.579927863897979</v>
+        <v>3.769192203948307</v>
       </c>
       <c r="C20">
-        <v>0.3460259073384861</v>
+        <v>0.5043271756115075</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.226873066421966</v>
+        <v>0.07749278683014715</v>
       </c>
       <c r="F20">
-        <v>1.987060982949643</v>
+        <v>1.118831815093102</v>
       </c>
       <c r="G20">
-        <v>0.002454836036168904</v>
+        <v>0.000791641861071268</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06717918565618675</v>
+        <v>0.08979168621460332</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4505569998461283</v>
+        <v>0.3866513874227309</v>
       </c>
       <c r="M20">
-        <v>0.4045099432632853</v>
+        <v>0.7217735666706062</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.412808465189698</v>
+        <v>1.814242412437352</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.722518587879733</v>
+        <v>4.253494874517401</v>
       </c>
       <c r="C21">
-        <v>0.3592341582117058</v>
+        <v>0.544605969397594</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.225516592436847</v>
+        <v>0.07690921963033759</v>
       </c>
       <c r="F21">
-        <v>1.983702318890877</v>
+        <v>1.184081159933655</v>
       </c>
       <c r="G21">
-        <v>0.00245147661686556</v>
+        <v>0.0007859372475793074</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06927011154813556</v>
+        <v>0.09600146687208877</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4599979037399322</v>
+        <v>0.4268716703819848</v>
       </c>
       <c r="M21">
-        <v>0.4302087002373582</v>
+        <v>0.8128258454576311</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.390224375012821</v>
+        <v>1.898824610523462</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.815786710852763</v>
+        <v>4.572088535514069</v>
       </c>
       <c r="C22">
-        <v>0.3678470522160353</v>
+        <v>0.5710801044430696</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2246850179024609</v>
+        <v>0.07661302865143682</v>
       </c>
       <c r="F22">
-        <v>1.982520119646964</v>
+        <v>1.229624198889297</v>
       </c>
       <c r="G22">
-        <v>0.002449363701625992</v>
+        <v>0.0007822673877292218</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07064011998817676</v>
+        <v>0.1000940125738197</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4662744668975165</v>
+        <v>0.4534680109193516</v>
       </c>
       <c r="M22">
-        <v>0.4470635503233353</v>
+        <v>0.8727826672397683</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.377622582080392</v>
+        <v>1.961201871790792</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.766001243213395</v>
+        <v>4.401839524123204</v>
       </c>
       <c r="C23">
-        <v>0.363252027265105</v>
+        <v>0.5569351621482497</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.225123824645884</v>
+        <v>0.07676314837356557</v>
       </c>
       <c r="F23">
-        <v>1.983058379576747</v>
+        <v>1.205038427212614</v>
       </c>
       <c r="G23">
-        <v>0.002450483863034183</v>
+        <v>0.0007842209559322011</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06990861535807369</v>
+        <v>0.09790639578940841</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4629148688494524</v>
+        <v>0.4392427946712871</v>
       </c>
       <c r="M23">
-        <v>0.4380624824919934</v>
+        <v>0.8407376951472614</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.384150623248672</v>
+        <v>1.927225760444685</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.577598705177422</v>
+        <v>3.761307265622747</v>
       </c>
       <c r="C24">
-        <v>0.345809709771487</v>
+        <v>0.5036710410876424</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2268961670374914</v>
+        <v>0.07750372711529074</v>
       </c>
       <c r="F24">
-        <v>1.987132972883927</v>
+        <v>1.1178113997004</v>
       </c>
       <c r="G24">
-        <v>0.002454892344633954</v>
+        <v>0.0007917361388726501</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06714507176990736</v>
+        <v>0.08969071700344244</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4504045017697393</v>
+        <v>0.3859988363631004</v>
       </c>
       <c r="M24">
-        <v>0.4040909331269873</v>
+        <v>0.7202921197616092</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.413213959444846</v>
+        <v>1.812972290121422</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.374757731802788</v>
+        <v>3.077431217429762</v>
       </c>
       <c r="C25">
-        <v>0.3269176426640001</v>
+        <v>0.4467185387717905</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2290447592377216</v>
+        <v>0.07865246270354298</v>
       </c>
       <c r="F25">
-        <v>1.995874310403977</v>
+        <v>1.034907464478025</v>
       </c>
       <c r="G25">
-        <v>0.00246000474448589</v>
+        <v>0.0008001162695818835</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06418023623729852</v>
+        <v>0.0809537851643185</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4373724507929779</v>
+        <v>0.3297205425667045</v>
       </c>
       <c r="M25">
-        <v>0.367711644325432</v>
+        <v>0.5919405254899104</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.453799484884655</v>
+        <v>1.716935805514339</v>
       </c>
     </row>
   </sheetData>
